--- a/office/excel/exercises/formulas/payroll.xlsx
+++ b/office/excel/exercises/formulas/payroll.xlsx
@@ -104,7 +104,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
-    <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -226,34 +226,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -642,32 +642,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -675,153 +675,153 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>33635</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>35704</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>37271</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>35796</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>37257</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>1500</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>2100</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>700</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>1800</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="20"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>37256</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>300</v>
       </c>
     </row>
@@ -857,19 +857,19 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>0.2</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>0.2</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>0.1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>0.15</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <v>0.1</v>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="9">
         <v>30</v>
       </c>
     </row>
@@ -885,7 +885,7 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>0.06</v>
       </c>
     </row>
@@ -893,19 +893,19 @@
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>0.18</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>0.22</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>0.02</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="6">
         <v>0.2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -927,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -941,32 +941,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -974,123 +974,123 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>33635</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>35704</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>37271</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>35796</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>37257</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>1500</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>2100</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>700</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>1800</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <f>+B21*$B24</f>
         <v>600</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <f>+C21*$B24</f>
         <v>0</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <f>+D21*$B24</f>
         <v>600</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <f>+E21*$B24</f>
         <v>300</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <f>+F21*$B24</f>
         <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <f>+B6*B22</f>
         <v>300</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <f>+C6*C22</f>
         <v>420</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <f>+D6*D22</f>
         <v>70</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <f>+E6*E22</f>
         <v>270</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <f>+F6*F22</f>
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <f>IF(B3&lt;$B$19,$B$20,0)</f>
         <v>300</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <f>IF(C3&lt;$B$19,$B$20,0)</f>
         <v>300</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <f>IF(D3&lt;$B$19,$B$20,0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <f>IF(E3&lt;$B$19,$B$20,0)</f>
         <v>300</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <f>IF(F3&lt;$B$19,$B$20,0)</f>
         <v>0</v>
       </c>
@@ -1099,23 +1099,23 @@
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <f>SUM(B6:B9)</f>
         <v>2700</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <f>SUM(C6:C9)</f>
         <v>2820</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <f>SUM(D6:D9)</f>
         <v>1370</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <f>SUM(E6:E9)</f>
         <v>2670</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <f>SUM(F6:F9)</f>
         <v>1750</v>
       </c>
@@ -1126,119 +1126,119 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="19">
-        <f>+B6*$B25</f>
-        <v>90</v>
-      </c>
-      <c r="C12" s="19">
-        <f>+C6*$B25</f>
-        <v>126</v>
-      </c>
-      <c r="D12" s="19">
-        <f>+D6*$B25</f>
-        <v>42</v>
-      </c>
-      <c r="E12" s="19">
-        <f>+E6*$B25</f>
-        <v>108</v>
-      </c>
-      <c r="F12" s="19">
-        <f>+F6*$B25</f>
-        <v>66</v>
+      <c r="B12" s="17">
+        <f>+B10*$B25</f>
+        <v>162</v>
+      </c>
+      <c r="C12" s="17">
+        <f t="shared" ref="C12:F12" si="0">+C10*$B25</f>
+        <v>169.2</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="0"/>
+        <v>82.2</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
+        <v>160.19999999999999</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <f>+B10*$B26</f>
         <v>486</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <f>+C10*C26</f>
         <v>620.4</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <f>+D10*D26</f>
         <v>27.400000000000002</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <f>+E10*E26</f>
         <v>534</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <f>+F10*F26</f>
         <v>245.00000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <f>SUM(B12:B13)</f>
-        <v>576</v>
-      </c>
-      <c r="C14" s="13">
+        <v>648</v>
+      </c>
+      <c r="C14" s="11">
         <f>SUM(C12:C13)</f>
-        <v>746.4</v>
-      </c>
-      <c r="D14" s="13">
+        <v>789.59999999999991</v>
+      </c>
+      <c r="D14" s="11">
         <f>SUM(D12:D13)</f>
-        <v>69.400000000000006</v>
-      </c>
-      <c r="E14" s="13">
+        <v>109.60000000000001</v>
+      </c>
+      <c r="E14" s="11">
         <f>SUM(E12:E13)</f>
-        <v>642</v>
-      </c>
-      <c r="F14" s="13">
+        <v>694.2</v>
+      </c>
+      <c r="F14" s="11">
         <f>SUM(F12:F13)</f>
-        <v>311</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <f>+B10-B14</f>
-        <v>2124</v>
-      </c>
-      <c r="C15" s="17">
+        <v>2052</v>
+      </c>
+      <c r="C15" s="15">
         <f>+C10-C14</f>
-        <v>2073.6</v>
-      </c>
-      <c r="D15" s="17">
+        <v>2030.4</v>
+      </c>
+      <c r="D15" s="15">
         <f>+D10-D14</f>
-        <v>1300.5999999999999</v>
-      </c>
-      <c r="E15" s="17">
+        <v>1260.4000000000001</v>
+      </c>
+      <c r="E15" s="15">
         <f>+E10-E14</f>
-        <v>2028</v>
-      </c>
-      <c r="F15" s="17">
+        <v>1975.8</v>
+      </c>
+      <c r="F15" s="15">
         <f>+F10-F14</f>
-        <v>1439</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <f>AVERAGE(B15:F15)</f>
-        <v>1793.0400000000002</v>
+        <v>1743.72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>37256</v>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>300</v>
       </c>
     </row>
@@ -1274,19 +1274,19 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>0.2</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>0.2</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>0.1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>0.15</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <v>0.1</v>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="9">
         <v>30</v>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>0.06</v>
       </c>
     </row>
@@ -1310,19 +1310,19 @@
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>0.18</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>0.22</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>0.02</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="6">
         <v>0.2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>0.14000000000000001</v>
       </c>
     </row>
